--- a/config_6.15/game_enter_btn_config.xlsx
+++ b/config_6.15/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="375">
   <si>
     <t>id|行号</t>
   </si>
@@ -1330,16 +1330,19 @@
   <si>
     <t>"act_042_xshb",</t>
   </si>
+  <si>
+    <t>actp_own_task_p_txz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1389,30 +1392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,19 +1413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1454,19 +1428,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1478,15 +1443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,7 +1466,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,19 +1532,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1579,7 +1582,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1696,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,145 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,36 +1794,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1841,11 +1818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,6 +1851,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1881,10 +1884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1893,137 +1896,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3651,7 +3654,7 @@
   <sheetPr/>
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -6189,6 +6192,9 @@
       </c>
       <c r="C143">
         <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>374</v>
       </c>
       <c r="E143">
         <v>142</v>
@@ -6382,7 +6388,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/config_6.15/game_enter_btn_config.xlsx
+++ b/config_6.15/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -445,7 +445,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>120#</t>
+    <t>100#</t>
   </si>
   <si>
     <t>all</t>
@@ -1335,9 +1335,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1387,11 +1387,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1411,75 +1454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1501,9 +1477,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,7 +1517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,7 +1578,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,13 +1626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,13 +1650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,31 +1680,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,25 +1728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,55 +1740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,20 +1790,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1814,6 +1811,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1837,23 +1843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1872,6 +1863,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1880,10 +1880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1892,139 +1892,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,9 +2071,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2441,12 +2438,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2461,57 +2458,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2549,25 +2546,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,13 +2595,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2625,12 +2622,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2645,24 +2642,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2699,18 +2696,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2741,24 +2738,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2779,12 +2776,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2799,13 +2796,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2827,12 +2824,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2847,13 +2844,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2890,13 +2887,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2937,18 +2934,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2959,7 +2956,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2971,7 +2968,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2982,7 +2979,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2993,7 +2990,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3004,7 +3001,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3015,7 +3012,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3062,13 +3059,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3142,7 +3139,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3166,12 +3163,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3186,61 +3183,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3273,13 +3270,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3312,13 +3309,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3351,13 +3348,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3391,13 +3388,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3433,29 +3430,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3476,8 +3473,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -6138,7 +6135,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="16" t="s">
         <v>373</v>
       </c>
       <c r="C143">
@@ -6185,53 +6182,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6252,12 +6249,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6272,55 +6269,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6347,7 +6344,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6386,12 +6383,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6406,13 +6403,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6446,12 +6443,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6466,44 +6463,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6519,18 +6516,18 @@
   <sheetPr/>
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6551,13 +6548,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6570,13 +6567,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6593,13 +6590,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6612,13 +6609,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6632,13 +6629,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6651,13 +6648,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6670,13 +6667,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6689,13 +6686,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6708,7 +6705,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6719,8 +6716,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -8044,7 +8041,7 @@
       <c r="D143" s="5">
         <v>142</v>
       </c>
-      <c r="E143" s="24" t="s">
+      <c r="E143" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8067,12 +8064,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -8087,13 +8084,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
     </row>

--- a/config_6.15/game_enter_btn_config.xlsx
+++ b/config_6.15/game_enter_btn_config.xlsx
@@ -4,37 +4,38 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="19" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
     <sheet name="xxlsh_game|水浒消消乐" sheetId="14" r:id="rId2"/>
     <sheet name="xxlcs_game|财神消消乐" sheetId="29" r:id="rId3"/>
     <sheet name="xxl_game|消消乐" sheetId="13" r:id="rId4"/>
-    <sheet name="zpg_game|种苹果" sheetId="28" r:id="rId5"/>
-    <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId6"/>
-    <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId7"/>
-    <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId8"/>
-    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId9"/>
-    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId10"/>
-    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId11"/>
-    <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId12"/>
-    <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId13"/>
-    <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId14"/>
-    <sheet name="mj_free_game|麻将游戏" sheetId="18" r:id="rId15"/>
-    <sheet name="qql_game|敲敲乐游戏" sheetId="19" r:id="rId16"/>
-    <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId17"/>
-    <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId18"/>
-    <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId19"/>
-    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId20"/>
-    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
-    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
-    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
-    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
-    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
-    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId26"/>
-    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
+    <sheet name="xxlsg_game|三国消消乐" sheetId="37" r:id="rId5"/>
+    <sheet name="zpg_game|种苹果" sheetId="28" r:id="rId6"/>
+    <sheet name="fishing_game|捕鱼游戏按钮配置" sheetId="12" r:id="rId7"/>
+    <sheet name="fishing_hall|捕鱼大厅按钮配置" sheetId="11" r:id="rId8"/>
+    <sheet name="hall_config|大厅按钮配置" sheetId="5" r:id="rId9"/>
+    <sheet name="ddz_free_game|斗地主游戏" sheetId="16" r:id="rId10"/>
+    <sheet name="freehall_config|匹配场大厅按钮配置" sheetId="9" r:id="rId11"/>
+    <sheet name="match_hall|比赛场大厅按钮配置" sheetId="21" r:id="rId12"/>
+    <sheet name="ddz_free_js|斗地主游戏结算" sheetId="17" r:id="rId13"/>
+    <sheet name="mj_free_js|麻将游戏结算" sheetId="23" r:id="rId14"/>
+    <sheet name="pdk_free_js|跑得快游戏结算" sheetId="22" r:id="rId15"/>
+    <sheet name="mj_free_game|麻将游戏" sheetId="18" r:id="rId16"/>
+    <sheet name="qql_game|敲敲乐游戏" sheetId="19" r:id="rId17"/>
+    <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId18"/>
+    <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId19"/>
+    <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId20"/>
+    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId21"/>
+    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId22"/>
+    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId23"/>
+    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId24"/>
+    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId25"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId26"/>
+    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId27"/>
+    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId28"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId29"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="374">
   <si>
     <t>id|行号</t>
   </si>
@@ -1335,9 +1336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1388,12 +1389,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1401,8 +1446,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1415,9 +1484,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,21 +1500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1454,56 +1508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,11 +1527,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1578,13 +1579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,13 +1603,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,43 +1663,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,43 +1723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,25 +1747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,6 +1808,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1816,11 +1826,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,30 +1868,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1880,10 +1881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1892,137 +1893,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2522,6 +2523,54 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2572,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -2611,7 +2660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
@@ -2670,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
@@ -2715,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
@@ -2765,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -2813,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -2861,7 +2910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -2903,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
@@ -3025,129 +3074,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3250,6 +3176,129 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3286,7 +3335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -3325,7 +3374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -3365,7 +3414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -3404,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
@@ -3468,12 +3517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3507,7 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
@@ -3552,7 +3601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
@@ -3597,7 +3646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F143"/>
@@ -6161,7 +6210,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -6333,6 +6382,45 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
@@ -6372,7 +6460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D3"/>
@@ -6432,7 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C5"/>
@@ -6511,7 +6599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J143"/>
@@ -8051,52 +8139,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>